--- a/TAP_POM_Framework/data/TC0039.xlsx
+++ b/TAP_POM_Framework/data/TC0039.xlsx
@@ -19,27 +19,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
-  <si>
-    <t>uname</t>
-  </si>
-  <si>
-    <t>pwd</t>
-  </si>
-  <si>
-    <t>row</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Rajravi@1</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>app_admin@ltts.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>companyname</t>
+  </si>
+  <si>
+    <t>companyphone</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Thales</t>
+  </si>
+  <si>
+    <t>https://www.thales.com</t>
+  </si>
+  <si>
+    <t>abi</t>
+  </si>
+  <si>
+    <t>anu</t>
+  </si>
+  <si>
+    <t>abianu@thales.com</t>
+  </si>
+  <si>
+    <t>Abirami@1</t>
   </si>
 </sst>
 </file>
@@ -368,15 +386,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,33 +408,46 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>277</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>9874563241</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="G2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TAP_POM_Framework/data/TC0039.xlsx
+++ b/TAP_POM_Framework/data/TC0039.xlsx
@@ -54,10 +54,10 @@
     <t>anu</t>
   </si>
   <si>
-    <t>abianu@thales.com</t>
-  </si>
-  <si>
     <t>Abirami@1</t>
+  </si>
+  <si>
+    <t>abianu55@thales.com</t>
   </si>
 </sst>
 </file>
@@ -389,7 +389,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,10 +437,10 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
